--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value577.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value577.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.976966165767049</v>
+        <v>1.129888534545898</v>
       </c>
       <c r="B1">
-        <v>2.493802672581672</v>
+        <v>2.127791166305542</v>
       </c>
       <c r="C1">
-        <v>2.580187017320551</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.9032106424479428</v>
+        <v>2.252900123596191</v>
       </c>
       <c r="E1">
-        <v>0.7341581398057839</v>
+        <v>1.087620139122009</v>
       </c>
     </row>
   </sheetData>
